--- a/人均GDP+人口集聚程度+二产占比+人均道路面积+金融发展水平/PSM_汇总报告.xlsx
+++ b/人均GDP+人口集聚程度+二产占比+人均道路面积+金融发展水平/PSM_汇总报告.xlsx
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2942</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1471</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1471</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -575,12 +575,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.2</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -602,12 +602,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>101.3</t>
+          <t>104.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-12.96</t>
+          <t>-12.08</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-1.62</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-102.9</t>
+          <t>-93.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>103.4</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
